--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p7-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p7-faa-0ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\KLDivergenceTest\FeedbackLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2ED2B4-6828-45FA-BCDF-170C52C648C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD939E43-CF87-45E8-A5F2-B97CA4455DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9338,8 +9338,8 @@
   </sheetPr>
   <dimension ref="A1:N993"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13433,8 +13433,8 @@
   </sheetPr>
   <dimension ref="A1:N993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p7-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p7-faa-0ms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\KLDivergenceTest\FeedbackLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanadsaha92/Desktop/Research_Experiments/imMens-Interactions/stationarity_test/KLDivergenceTest/FeedbackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD939E43-CF87-45E8-A5F2-B97CA4455DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8710C8-2BD2-064A-BC1F-970CDC3ECD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -828,19 +828,19 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="111.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="111.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="28" width="17.28515625" customWidth="1"/>
+    <col min="11" max="28" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4008,886 +4008,886 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4905,19 +4905,19 @@
       <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="111.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="111.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="29" width="17.28515625" customWidth="1"/>
+    <col min="12" max="29" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8445,886 +8445,886 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9342,23 +9342,23 @@
       <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="99.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="99.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="24" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="32" width="17.28515625" customWidth="1"/>
+    <col min="15" max="32" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="L2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="L5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -9632,7 +9632,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -9822,7 +9822,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>48</v>
       </c>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>49</v>
       </c>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>50</v>
       </c>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
@@ -10308,7 +10308,7 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -10362,7 +10362,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>60</v>
       </c>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>61</v>
       </c>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="L49" s="3"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>69</v>
       </c>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>70</v>
       </c>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>72</v>
       </c>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>73</v>
       </c>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>74</v>
       </c>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>75</v>
       </c>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>76</v>
       </c>
@@ -10906,7 +10906,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>78</v>
       </c>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>79</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>80</v>
       </c>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>81</v>
       </c>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>82</v>
       </c>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>83</v>
       </c>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>85</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>86</v>
       </c>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>87</v>
       </c>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>88</v>
       </c>
@@ -11204,7 +11204,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>89</v>
       </c>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>90</v>
       </c>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>91</v>
       </c>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>92</v>
       </c>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>93</v>
       </c>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>94</v>
       </c>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>95</v>
       </c>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>96</v>
       </c>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>97</v>
       </c>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>98</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>99</v>
       </c>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>100</v>
       </c>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>101</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>102</v>
       </c>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>103</v>
       </c>
@@ -11609,7 +11609,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>104</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>105</v>
       </c>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>106</v>
       </c>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>107</v>
       </c>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>108</v>
       </c>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>109</v>
       </c>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>110</v>
       </c>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>111</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>112</v>
       </c>
@@ -11853,7 +11853,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>114</v>
       </c>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>115</v>
       </c>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>116</v>
       </c>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>117</v>
       </c>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>118</v>
       </c>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>119</v>
       </c>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>120</v>
       </c>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>121</v>
       </c>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>122</v>
       </c>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>123</v>
       </c>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>124</v>
       </c>
@@ -12151,7 +12151,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>125</v>
       </c>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>126</v>
       </c>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>127</v>
       </c>
@@ -12232,7 +12232,7 @@
       </c>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>129</v>
       </c>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>130</v>
       </c>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>131</v>
       </c>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>132</v>
       </c>
@@ -12340,7 +12340,7 @@
       </c>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>133</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>134</v>
       </c>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>135</v>
       </c>
@@ -12423,7 +12423,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>136</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>137</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>138</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>139</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="D118" s="4"/>
@@ -12535,891 +12535,891 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13433,28 +13433,28 @@
   </sheetPr>
   <dimension ref="A1:N993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="99.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="99.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="24" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="32" width="17.28515625" customWidth="1"/>
+    <col min="15" max="32" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13510,7 +13510,7 @@
       <c r="L2" s="3"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="L5" s="3"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -13619,7 +13619,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -13728,7 +13728,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -13755,7 +13755,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -13918,7 +13918,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>44</v>
       </c>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>45</v>
       </c>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>46</v>
       </c>
@@ -14272,7 +14272,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>48</v>
       </c>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>49</v>
       </c>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>50</v>
       </c>
@@ -14380,7 +14380,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
@@ -14407,7 +14407,7 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -14596,7 +14596,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>60</v>
       </c>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>61</v>
       </c>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -14705,7 +14705,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
@@ -14788,7 +14788,7 @@
       <c r="L49" s="3"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>69</v>
       </c>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>70</v>
       </c>
@@ -14842,7 +14842,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>72</v>
       </c>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>73</v>
       </c>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>74</v>
       </c>
@@ -14950,7 +14950,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>75</v>
       </c>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>76</v>
       </c>
@@ -15005,7 +15005,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>78</v>
       </c>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>79</v>
       </c>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>80</v>
       </c>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>81</v>
       </c>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>82</v>
       </c>
@@ -15140,7 +15140,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>83</v>
       </c>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>85</v>
       </c>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>86</v>
       </c>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>87</v>
       </c>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>88</v>
       </c>
@@ -15303,7 +15303,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>89</v>
       </c>
@@ -15330,7 +15330,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>90</v>
       </c>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>91</v>
       </c>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>92</v>
       </c>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>93</v>
       </c>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>94</v>
       </c>
@@ -15465,7 +15465,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>95</v>
       </c>
@@ -15492,7 +15492,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>96</v>
       </c>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>97</v>
       </c>
@@ -15546,7 +15546,7 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>98</v>
       </c>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>99</v>
       </c>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>100</v>
       </c>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>101</v>
       </c>
@@ -15654,7 +15654,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>102</v>
       </c>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>103</v>
       </c>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>104</v>
       </c>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>105</v>
       </c>
@@ -15762,7 +15762,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>106</v>
       </c>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>107</v>
       </c>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>108</v>
       </c>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>109</v>
       </c>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>110</v>
       </c>
@@ -15897,7 +15897,7 @@
       </c>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>111</v>
       </c>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>112</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>114</v>
       </c>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>115</v>
       </c>
@@ -16006,7 +16006,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>116</v>
       </c>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>117</v>
       </c>
@@ -16060,7 +16060,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>118</v>
       </c>
@@ -16087,7 +16087,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>119</v>
       </c>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>120</v>
       </c>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>121</v>
       </c>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>122</v>
       </c>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>123</v>
       </c>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>124</v>
       </c>
@@ -16250,7 +16250,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>125</v>
       </c>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>126</v>
       </c>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>127</v>
       </c>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>129</v>
       </c>
@@ -16358,7 +16358,7 @@
       </c>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>130</v>
       </c>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>131</v>
       </c>
@@ -16412,7 +16412,7 @@
       </c>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>132</v>
       </c>
@@ -16439,7 +16439,7 @@
       </c>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>133</v>
       </c>
@@ -16467,7 +16467,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>134</v>
       </c>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>135</v>
       </c>
@@ -16522,7 +16522,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>136</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>137</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>138</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>139</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="D118" s="4"/>
@@ -16634,891 +16634,891 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
